--- a/Iran/Iran_Shahram/2018/001-Pipe project/shahram/pipe quotation_2018-05-05.xlsx
+++ b/Iran/Iran_Shahram/2018/001-Pipe project/shahram/pipe quotation_2018-05-05.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOIT\Yeah\Iran_Shahram\2018\001-Pipe project\shahram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XU\ODO\Iran\Iran_Shahram\2018\001-Pipe project\shahram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D42E3-BD3A-4309-AC54-D34AD355955B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="pipe" sheetId="2" r:id="rId1"/>
@@ -199,12 +198,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,8 +211,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,7 +259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,23 +531,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333F0A93-F4D5-45BF-B8D7-791A1A59D9B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="5" max="5" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.05" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,7 +567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -583,7 +588,7 @@
         <v>16356</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -604,7 +609,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -625,7 +630,7 @@
         <v>56616</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -646,7 +651,7 @@
         <v>34656</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -667,7 +672,7 @@
         <v>91980</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.05" customHeight="1">
+    <row r="7" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -688,7 +693,7 @@
         <v>8088</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.05" customHeight="1">
+    <row r="8" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -709,7 +714,7 @@
         <v>22176</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.05" customHeight="1">
+    <row r="9" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,7 +735,7 @@
         <v>19404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.05" customHeight="1">
+    <row r="10" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -751,7 +756,7 @@
         <v>150858</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.05" customHeight="1">
+    <row r="11" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -772,7 +777,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.05" customHeight="1">
+    <row r="12" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -793,7 +798,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.05" customHeight="1">
+    <row r="13" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -814,7 +819,7 @@
         <v>6180</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.05" customHeight="1">
+    <row r="14" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -835,7 +840,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.05" customHeight="1">
+    <row r="15" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -856,7 +861,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.05" customHeight="1">
+    <row r="16" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -877,7 +882,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.05" customHeight="1">
+    <row r="17" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -898,7 +903,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.05" customHeight="1">
+    <row r="18" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -919,7 +924,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.05" customHeight="1">
+    <row r="19" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -940,7 +945,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.05" customHeight="1">
+    <row r="20" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -961,7 +966,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.05" customHeight="1">
+    <row r="21" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -982,7 +987,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.05" customHeight="1">
+    <row r="22" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.05" customHeight="1">
+    <row r="23" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.05" customHeight="1">
+    <row r="24" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>7944</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.05" customHeight="1">
+    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>14092</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.05" customHeight="1">
+    <row r="26" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.05" customHeight="1">
+    <row r="27" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.05" customHeight="1">
+    <row r="28" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.05" customHeight="1">
+    <row r="29" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.05" customHeight="1">
+    <row r="30" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.05" customHeight="1">
+    <row r="31" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.05" customHeight="1">
+    <row r="32" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.05" customHeight="1">
+    <row r="33" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.05" customHeight="1">
+    <row r="34" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.05" customHeight="1">
+    <row r="35" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.05" customHeight="1">
+    <row r="36" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.05" customHeight="1">
+    <row r="37" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.05" customHeight="1">
+    <row r="38" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.05" customHeight="1">
+    <row r="39" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.05" customHeight="1">
+    <row r="40" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.05" customHeight="1">
+    <row r="41" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.05" customHeight="1">
+    <row r="42" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1423,7 +1428,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.05" customHeight="1">
+    <row r="43" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.05" customHeight="1">
+    <row r="44" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.05" customHeight="1">
+    <row r="45" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.05" customHeight="1">
+    <row r="46" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1507,7 +1512,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.05" customHeight="1">
+    <row r="47" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.05" customHeight="1">
+    <row r="48" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.05" customHeight="1">
+    <row r="49" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.05" customHeight="1">
+    <row r="50" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.05" customHeight="1">
+    <row r="51" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.05" customHeight="1">
+    <row r="52" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F52" s="2">
         <f>SUM(F2:F51)</f>
         <v>503890</v>
@@ -1622,6 +1627,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
